--- a/Team-Data/2013-14/2-21-2013-14.xlsx
+++ b/Team-Data/2013-14/2-21-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,52 +733,52 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O2" t="n">
         <v>16.6</v>
       </c>
       <c r="P2" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T2" t="n">
         <v>40.7</v>
@@ -720,7 +787,7 @@
         <v>25.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
@@ -732,49 +799,49 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="n">
         <v>17</v>
       </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18</v>
-      </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -783,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -819,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,49 +933,49 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.328</v>
+        <v>0.331</v>
       </c>
       <c r="O3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S3" t="n">
         <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.5</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -920,31 +987,31 @@
         <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -968,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
         <v>19</v>
@@ -980,13 +1047,13 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1178,7 @@
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1120,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>14</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1147,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1168,19 +1235,19 @@
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.464</v>
+        <v>0.455</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,10 +1297,10 @@
         <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,25 +1309,25 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R5" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
         <v>33.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
         <v>21.1</v>
@@ -1272,46 +1339,46 @@
         <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
         <v>95.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1320,10 +1387,10 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>7</v>
@@ -1338,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>17</v>
@@ -1350,22 +1417,22 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -1394,58 +1461,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.537</v>
+        <v>0.528</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
         <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M6" t="n">
         <v>17.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
         <v>15.7</v>
@@ -1454,7 +1521,7 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6.3</v>
@@ -1466,13 +1533,13 @@
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1508,13 +1575,13 @@
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1532,22 +1599,22 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1606,25 +1673,25 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R7" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U7" t="n">
         <v>20.3</v>
@@ -1636,7 +1703,7 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y7" t="n">
         <v>5.9</v>
@@ -1648,16 +1715,16 @@
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1687,16 +1754,16 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
         <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>16</v>
@@ -1714,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="J8" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>8.300000000000001</v>
@@ -1788,58 +1855,58 @@
         <v>22.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O8" t="n">
         <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
         <v>19.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>103.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1854,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1881,34 +1948,34 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J9" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
         <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.721</v>
+        <v>0.724</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V9" t="n">
         <v>15.5</v>
@@ -2012,22 +2079,22 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AD9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2039,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2066,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>13</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>22</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.418</v>
+        <v>0.407</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J10" t="n">
         <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>19.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="O10" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.662</v>
+        <v>0.666</v>
       </c>
       <c r="R10" t="n">
         <v>14.6</v>
@@ -2173,13 +2240,13 @@
         <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
         <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.1</v>
@@ -2191,19 +2258,19 @@
         <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2230,10 +2297,10 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2245,22 +2312,22 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2272,10 +2339,10 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2403,19 +2470,19 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
@@ -2585,16 +2652,16 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL12" t="n">
         <v>5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2612,10 +2679,10 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2776,13 +2843,13 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
@@ -2797,22 +2864,22 @@
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV13" t="n">
         <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.649</v>
+        <v>0.661</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.343</v>
       </c>
       <c r="O14" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.727</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
         <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
         <v>24</v>
@@ -2910,22 +2977,22 @@
         <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,13 +3010,13 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2976,13 +3043,13 @@
         <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
         <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L15" t="n">
         <v>9.199999999999999</v>
@@ -3062,22 +3129,22 @@
         <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
         <v>42.2</v>
@@ -3086,7 +3153,7 @@
         <v>23.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
         <v>6.7</v>
@@ -3095,7 +3162,7 @@
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
         <v>20.1</v>
@@ -3107,19 +3174,19 @@
         <v>100.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.3</v>
+        <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3134,13 +3201,13 @@
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3155,13 +3222,13 @@
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
         <v>20</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>9</v>
@@ -3182,7 +3249,7 @@
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
         <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.456</v>
@@ -3247,25 +3314,25 @@
         <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3280,19 +3347,19 @@
         <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3334,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
@@ -3346,28 +3413,28 @@
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3507,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>21</v>
@@ -3728,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3850,7 +3917,7 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>10</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3889,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.426</v>
+        <v>0.434</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J20" t="n">
         <v>83.40000000000001</v>
@@ -3969,64 +4036,64 @@
         <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X20" t="n">
         <v>6.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>20</v>
@@ -4038,10 +4105,10 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>27</v>
@@ -4053,7 +4120,7 @@
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
@@ -4062,13 +4129,13 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4077,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="n">
-        <v>0.382</v>
+        <v>0.389</v>
       </c>
       <c r="H21" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
         <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
@@ -4196,13 +4263,13 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.7</v>
+        <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4214,13 +4281,13 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4262,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>4</v>
@@ -4274,10 +4341,10 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4402,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4441,7 +4508,7 @@
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0.298</v>
+        <v>0.286</v>
       </c>
       <c r="H23" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R23" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
@@ -4560,10 +4627,10 @@
         <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,10 +4645,10 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>18</v>
@@ -4596,28 +4663,28 @@
         <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>23</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4626,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>0.268</v>
+        <v>0.273</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4688,7 +4755,7 @@
         <v>38.3</v>
       </c>
       <c r="J24" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.434</v>
@@ -4697,28 +4764,28 @@
         <v>6.8</v>
       </c>
       <c r="M24" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="O24" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.715</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U24" t="n">
         <v>22.1</v>
@@ -4727,10 +4794,10 @@
         <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y24" t="n">
         <v>7.4</v>
@@ -4742,25 +4809,25 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -4778,25 +4845,25 @@
         <v>15</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
         <v>12</v>
@@ -4817,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -4852,52 +4919,52 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J25" t="n">
         <v>84.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
         <v>25.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
         <v>18.5</v>
       </c>
       <c r="P25" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T25" t="n">
         <v>43.6</v>
@@ -4915,25 +4982,25 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
         <v>105</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4945,13 +5012,13 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>1</v>
@@ -4960,16 +5027,16 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4984,22 +5051,22 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -5034,49 +5101,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="n">
         <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J26" t="n">
         <v>88.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
         <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S26" t="n">
         <v>33.4</v>
@@ -5085,43 +5152,43 @@
         <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
         <v>19.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
@@ -5133,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5142,19 +5209,19 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5172,16 +5239,16 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5312,7 +5379,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5333,10 +5400,10 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5354,7 +5421,7 @@
         <v>21</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>24</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.714</v>
+        <v>0.727</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="J28" t="n">
         <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
         <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.388</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>104.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -5509,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,22 +5591,22 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5548,10 +5615,10 @@
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -5580,31 +5647,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
         <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
         <v>22.8</v>
@@ -5613,13 +5680,13 @@
         <v>0.362</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R29" t="n">
         <v>11.9</v>
@@ -5631,10 +5698,10 @@
         <v>42.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
@@ -5652,13 +5719,13 @@
         <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5670,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5694,10 +5761,10 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5706,13 +5773,13 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
         <v>25</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5789,34 +5856,34 @@
         <v>6.7</v>
       </c>
       <c r="M30" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
         <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>6.9</v>
@@ -5825,7 +5892,7 @@
         <v>4.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z30" t="n">
         <v>20.8</v>
@@ -5837,10 +5904,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5855,13 +5922,13 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>24</v>
@@ -5885,7 +5952,7 @@
         <v>17</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5894,16 +5961,16 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6055,13 +6122,13 @@
         <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-21-2013-14</t>
+          <t>2014-02-21</t>
         </is>
       </c>
     </row>
